--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 02.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Exercise Files/Exercise 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{E865327C-2EC6-4668-A82F-C99AC8F9ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60D6E8EC-1629-4E6C-B5C9-C4093880279F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24631E1-DBCD-4165-9A2C-32027ADA8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{34B7161F-5B06-44BA-95C3-8882DCCA26F7}"/>
+    <workbookView xWindow="5868" yWindow="204" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{34B7161F-5B06-44BA-95C3-8882DCCA26F7}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIQUE" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>Months</t>
   </si>
@@ -182,6 +203,12 @@
   </si>
   <si>
     <t>The RANDARRAY and RANDBETWEEN Functions</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>unique</t>
   </si>
 </sst>
 </file>
@@ -189,14 +216,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -316,22 +350,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -455,16 +490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -479,7 +514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10523220" y="1120140"/>
+          <a:off x="11811000" y="1089660"/>
           <a:ext cx="2948940" cy="3794760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -614,7 +649,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>' in cell P4. </a:t>
+            <a:t>' in cell P4.  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1153,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0687C-411F-4285-A147-9768055853D2}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,6 +1208,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -1199,6 +1239,18 @@
       <c r="B4" s="2">
         <v>773</v>
       </c>
+      <c r="G4" s="2" t="str" cm="1">
+        <f t="array" ref="G4:G10">_xlfn.UNIQUE(A4:A20,FALSE,FALSE)</f>
+        <v>Jan</v>
+      </c>
+      <c r="H4" s="2" t="str" cm="1">
+        <f t="array" ref="H4:H5">_xlfn.UNIQUE(A4:A20,FALSE,TRUE)</f>
+        <v>Mar</v>
+      </c>
+      <c r="I4" s="2">
+        <f>COUNTA(_xlfn.UNIQUE(A4:A20))</f>
+        <v>7</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
     </row>
@@ -1209,6 +1261,12 @@
       <c r="B5" s="2">
         <v>602</v>
       </c>
+      <c r="G5" s="2" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <v>Jun</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
     </row>
@@ -1219,6 +1277,9 @@
       <c r="B6" s="2">
         <v>807</v>
       </c>
+      <c r="G6" s="2" t="str">
+        <v>Mar</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
     </row>
@@ -1229,6 +1290,9 @@
       <c r="B7" s="2">
         <v>643</v>
       </c>
+      <c r="G7" s="2" t="str">
+        <v>Apr</v>
+      </c>
       <c r="K7"/>
       <c r="L7"/>
     </row>
@@ -1239,6 +1303,9 @@
       <c r="B8" s="2">
         <v>719</v>
       </c>
+      <c r="G8" s="2" t="str">
+        <v>May</v>
+      </c>
       <c r="K8"/>
       <c r="L8"/>
     </row>
@@ -1249,6 +1316,9 @@
       <c r="B9" s="2">
         <v>756</v>
       </c>
+      <c r="G9" s="2" t="str">
+        <v>Jun</v>
+      </c>
       <c r="K9"/>
       <c r="L9"/>
     </row>
@@ -1259,6 +1329,9 @@
       <c r="B10" s="2">
         <v>745</v>
       </c>
+      <c r="G10" s="2" t="str">
+        <v>Jul</v>
+      </c>
       <c r="K10"/>
       <c r="L10"/>
     </row>
@@ -1361,7 +1434,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1369,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4B47F9-ADCC-4CC1-A7DA-F3EED0209938}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1387,6 +1460,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
@@ -1400,6 +1481,12 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1505,10 @@
       <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="10">
+        <f>SUM(M5:M6)</f>
+        <v>555</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1433,7 +1523,30 @@
       <c r="D5" s="9">
         <v>311</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5:E7">_xlfn.UNIQUE(A5:A25,FALSE,FALSE)</f>
+        <v>Mark</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5:F10">_xlfn.UNIQUE(B5:B25,FALSE,FALSE)</f>
+        <v>Jan</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="str" cm="1">
+        <f t="array" ref="J5:M6">_xlfn._xlws.FILTER(A5:D25,(A5:A25=$G$5)*(B5:B25=$G$8),"No Records")</f>
+        <v>Claire</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L5">
+        <v>973</v>
+      </c>
+      <c r="M5">
+        <v>339</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1448,6 +1561,24 @@
       <c r="D6" s="9">
         <v>315</v>
       </c>
+      <c r="E6" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L6">
+        <v>551</v>
+      </c>
+      <c r="M6">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1462,6 +1593,12 @@
       <c r="D7" s="9">
         <v>278</v>
       </c>
+      <c r="E7" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Mar</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1616,12 @@
       <c r="D8" s="9">
         <v>224</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="F8" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1494,6 +1636,9 @@
       <c r="D9" s="9">
         <v>382</v>
       </c>
+      <c r="F9" t="str">
+        <v>May</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1508,6 +1653,22 @@
       <c r="D10" s="9">
         <v>267</v>
       </c>
+      <c r="F10" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="J10" t="str" cm="1">
+        <f t="array" ref="J10:M18">_xlfn._xlws.FILTER(A5:D25,(A5:A25=$G$5)+(B5:B25=G8),"No Records")</f>
+        <v>Claire</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="L10">
+        <v>602</v>
+      </c>
+      <c r="M10">
+        <v>315</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1522,6 +1683,18 @@
       <c r="D11" s="9">
         <v>244</v>
       </c>
+      <c r="J11" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="L11">
+        <v>745</v>
+      </c>
+      <c r="M11">
+        <v>244</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1536,6 +1709,18 @@
       <c r="D12" s="9">
         <v>351</v>
       </c>
+      <c r="J12" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L12">
+        <v>822</v>
+      </c>
+      <c r="M12">
+        <v>351</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1550,6 +1735,18 @@
       <c r="D13" s="9">
         <v>339</v>
       </c>
+      <c r="J13" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L13">
+        <v>973</v>
+      </c>
+      <c r="M13">
+        <v>339</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1564,6 +1761,18 @@
       <c r="D14" s="9">
         <v>216</v>
       </c>
+      <c r="J14" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L14">
+        <v>551</v>
+      </c>
+      <c r="M14">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1578,6 +1787,18 @@
       <c r="D15" s="9">
         <v>363</v>
       </c>
+      <c r="J15" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L15">
+        <v>584</v>
+      </c>
+      <c r="M15">
+        <v>363</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1592,8 +1813,20 @@
       <c r="D16" s="9">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="L16">
+        <v>697</v>
+      </c>
+      <c r="M16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1606,8 +1839,20 @@
       <c r="D17" s="7">
         <v>340</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="L17">
+        <v>667</v>
+      </c>
+      <c r="M17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1620,8 +1865,20 @@
       <c r="D18" s="7">
         <v>237</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="L18">
+        <v>546</v>
+      </c>
+      <c r="M18">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1892,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1906,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1920,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1676,8 +1933,21 @@
       <c r="D22" s="7">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J22" t="str" cm="1">
+        <f t="array" ref="J22:M30">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A5:D25,(A5:A25=$G$5)+(B5:B25=G8),"No Records"),1,1)</f>
+        <v>Claire</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="L22">
+        <v>602</v>
+      </c>
+      <c r="M22">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -1690,8 +1960,20 @@
       <c r="D23" s="7">
         <v>359</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="L23">
+        <v>745</v>
+      </c>
+      <c r="M23">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1704,8 +1986,20 @@
       <c r="D24" s="7">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L24">
+        <v>973</v>
+      </c>
+      <c r="M24">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -1718,18 +2012,131 @@
       <c r="D25" s="7">
         <v>254</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L25">
+        <v>551</v>
+      </c>
+      <c r="M25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="L26">
+        <v>697</v>
+      </c>
+      <c r="M26">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="L27">
+        <v>667</v>
+      </c>
+      <c r="M27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
+      <c r="J28" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="L28">
+        <v>546</v>
+      </c>
+      <c r="M28">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L29">
+        <v>822</v>
+      </c>
+      <c r="M29">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L30">
+        <v>584</v>
+      </c>
+      <c r="M30">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" t="str" cm="1">
+        <f t="array" ref="J34:M35">_xlfn._xlws.FILTER(A5:D25,(A5:A25=$G$5)*(B5:B25=$G$8),"No Records")</f>
+        <v>Claire</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L34">
+        <v>973</v>
+      </c>
+      <c r="M34">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <v>Claire</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="L35">
+        <v>551</v>
+      </c>
+      <c r="M35">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{C233D0CC-56B8-451C-9E63-09487F30D882}">
+      <formula1>$E$5:$E$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{21E5EFD9-B929-4F28-ADF5-375F347B806C}">
+      <formula1>$F$5:$F$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1740,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E4497B-291C-4D2C-89E3-DB150FA81755}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1773,7 +2180,9 @@
       <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1819,7 +2228,10 @@
       <c r="H7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="str">
+        <f>_xlfn.XLOOKUP(I4,B5:B19,A5:A19,"No Record",0,1)</f>
+        <v>Team 3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1851,7 +2263,10 @@
       <c r="H9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12">
+        <f>_xlfn.XLOOKUP(I4,B5:B19,C5:C19)</f>
+        <v>584</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1883,7 +2298,10 @@
       <c r="H11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12">
+        <f>_xlfn.XLOOKUP(I4,B5:B19,D5:D19)</f>
+        <v>363</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -2028,6 +2446,11 @@
       <c r="D25" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{2D089956-32AD-4167-B7F4-616D681E3B3B}">
+      <formula1>$B$5:$B$19</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2035,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAA294F-DD27-43BD-AF15-29186E13BE0C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2048,12 +2471,12 @@
     <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2064,110 +2487,290 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" cm="1">
+        <f t="array" aca="1" ref="B5:C19" ca="1">_xlfn.RANDARRAY(COUNTA(A5:A19),2,100,1000,TRUE)</f>
+        <v>551</v>
+      </c>
+      <c r="C5" s="9">
+        <f ca="1"/>
+        <v>953</v>
+      </c>
+      <c r="E5" s="9">
+        <v>881</v>
+      </c>
+      <c r="F5" s="9">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <f ca="1"/>
+        <v>720</v>
+      </c>
+      <c r="C6" s="9">
+        <f ca="1"/>
+        <v>479</v>
+      </c>
+      <c r="E6" s="9">
+        <v>798</v>
+      </c>
+      <c r="F6" s="9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <f ca="1"/>
+        <v>494</v>
+      </c>
+      <c r="C7" s="9">
+        <f ca="1"/>
+        <v>527</v>
+      </c>
+      <c r="E7" s="9">
+        <v>438</v>
+      </c>
+      <c r="F7" s="9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <f ca="1"/>
+        <v>902</v>
+      </c>
+      <c r="C8" s="9">
+        <f ca="1"/>
+        <v>516</v>
+      </c>
+      <c r="E8" s="9">
+        <v>376</v>
+      </c>
+      <c r="F8" s="9">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <f ca="1"/>
+        <v>179</v>
+      </c>
+      <c r="C9" s="9">
+        <f ca="1"/>
+        <v>386</v>
+      </c>
+      <c r="E9" s="9">
+        <v>796</v>
+      </c>
+      <c r="F9" s="9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <f ca="1"/>
+        <v>776</v>
+      </c>
+      <c r="C10" s="9">
+        <f ca="1"/>
+        <v>447</v>
+      </c>
+      <c r="E10" s="9">
+        <v>846</v>
+      </c>
+      <c r="F10" s="9">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <f ca="1"/>
+        <v>664</v>
+      </c>
+      <c r="C11" s="9">
+        <f ca="1"/>
+        <v>752</v>
+      </c>
+      <c r="E11" s="9">
+        <v>781</v>
+      </c>
+      <c r="F11" s="9">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <f ca="1"/>
+        <v>588</v>
+      </c>
+      <c r="C12" s="9">
+        <f ca="1"/>
+        <v>586</v>
+      </c>
+      <c r="E12" s="9">
+        <v>662</v>
+      </c>
+      <c r="F12" s="9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <f ca="1"/>
+        <v>170</v>
+      </c>
+      <c r="C13" s="9">
+        <f ca="1"/>
+        <v>460</v>
+      </c>
+      <c r="E13" s="9">
+        <v>600</v>
+      </c>
+      <c r="F13" s="9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <f ca="1"/>
+        <v>947</v>
+      </c>
+      <c r="C14" s="9">
+        <f ca="1"/>
+        <v>225</v>
+      </c>
+      <c r="E14" s="9">
+        <v>116</v>
+      </c>
+      <c r="F14" s="9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <f ca="1"/>
+        <v>257</v>
+      </c>
+      <c r="C15" s="9">
+        <f ca="1"/>
+        <v>111</v>
+      </c>
+      <c r="E15" s="9">
+        <v>761</v>
+      </c>
+      <c r="F15" s="9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <f ca="1"/>
+        <v>660</v>
+      </c>
+      <c r="C16" s="9">
+        <f ca="1"/>
+        <v>171</v>
+      </c>
+      <c r="E16" s="9">
+        <v>427</v>
+      </c>
+      <c r="F16" s="9">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <f ca="1"/>
+        <v>788</v>
+      </c>
+      <c r="C17" s="7">
+        <f ca="1"/>
+        <v>756</v>
+      </c>
+      <c r="E17" s="7">
+        <v>156</v>
+      </c>
+      <c r="F17" s="7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <f ca="1"/>
+        <v>743</v>
+      </c>
+      <c r="C18" s="7">
+        <f ca="1"/>
+        <v>545</v>
+      </c>
+      <c r="E18" s="7">
+        <v>547</v>
+      </c>
+      <c r="F18" s="7">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7">
+        <f ca="1"/>
+        <v>946</v>
+      </c>
+      <c r="C19" s="7">
+        <f ca="1"/>
+        <v>219</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>655</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
